--- a/001_010/emisc1.xlsx
+++ b/001_010/emisc1.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="001" sheetId="1" r:id="rId1"/>
     <sheet name="002" sheetId="2" r:id="rId2"/>
     <sheet name="003" sheetId="3" r:id="rId3"/>
+    <sheet name="004" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'004'!$B$2:$I$6</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +76,78 @@
   </si>
   <si>
     <t>After(格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用sumif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?卓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -80,9 +156,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0&quot;米&quot;"/>
+    <numFmt numFmtId="176" formatCode="0&quot;米&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +177,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -133,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -156,11 +241,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -170,7 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1082,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1238,4 +1337,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5">
+        <f>SUMIFS(E:E,C:C,G3)</f>
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <f>SUMIF(C:C,G3,E:E)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5">
+        <f>SUMIFS(E:E,C:C,G4)</f>
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <f>SUMIF(C:C,G4,E:E)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5">
+        <v>9998</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5">
+        <v>998</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="5">
+        <f>SUMIFS(E:E,C:C,G7,D:D,H7)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5">
+        <f>SUMIFS(E:E,C:C,G8,D:D,H8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="5">
+        <f>SUMIFS(E:E,B:B,G11)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5">
+        <f>SUMIFS(E:E,B:B,G12)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/001_010/emisc1.xlsx
+++ b/001_010/emisc1.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="001" sheetId="1" r:id="rId1"/>
     <sheet name="002" sheetId="2" r:id="rId2"/>
     <sheet name="003" sheetId="3" r:id="rId3"/>
     <sheet name="004" sheetId="4" r:id="rId4"/>
+    <sheet name="005" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'004'!$B$2:$I$6</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +149,86 @@
   </si>
   <si>
     <t>?卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元格格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值(两位小数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币(美元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪的自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实质值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,8 +236,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0&quot;米&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="181" formatCode="&quot;这&quot;&quot;个&quot;0&quot;呵&quot;&quot;呵&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -256,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -270,6 +355,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1343,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1534,4 +1633,196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="G2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="14">
+        <v>43601</v>
+      </c>
+      <c r="D3" s="22">
+        <f>C3+1</f>
+        <v>43602</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="G3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43601</v>
+      </c>
+      <c r="D4" s="22">
+        <f t="shared" ref="D4:D10" si="0">C4+1</f>
+        <v>43602</v>
+      </c>
+      <c r="E4" s="25" t="str">
+        <f>TEXT(D4,"0.00")</f>
+        <v>43602.00</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="16">
+        <v>43601</v>
+      </c>
+      <c r="D5" s="22">
+        <f t="shared" si="0"/>
+        <v>43602</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="G5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="17">
+        <v>43601</v>
+      </c>
+      <c r="D6" s="22">
+        <f t="shared" si="0"/>
+        <v>43602</v>
+      </c>
+      <c r="E6" s="25" t="str">
+        <f>TEXT(D6,"yyyy/m/d")</f>
+        <v>2019/5/17</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18">
+        <v>43601</v>
+      </c>
+      <c r="D7" s="22">
+        <f t="shared" si="0"/>
+        <v>43602</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="G7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="5" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="19">
+        <v>43601</v>
+      </c>
+      <c r="D8" s="22">
+        <f t="shared" si="0"/>
+        <v>43602</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="G8" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="20">
+        <v>43601</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" si="0"/>
+        <v>43602</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21">
+        <v>43601</v>
+      </c>
+      <c r="D10" s="22">
+        <f t="shared" si="0"/>
+        <v>43602</v>
+      </c>
+      <c r="E10" s="25" t="str">
+        <f>TEXT(D10,"0人民币")</f>
+        <v>43602人民币</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E11" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/001_010/emisc1.xlsx
+++ b/001_010/emisc1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="001" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="003" sheetId="3" r:id="rId3"/>
     <sheet name="004" sheetId="4" r:id="rId4"/>
     <sheet name="005" sheetId="5" r:id="rId5"/>
+    <sheet name="007" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'004'!$B$2:$I$6</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Before</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +230,54 @@
   </si>
   <si>
     <t>布尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROUNDUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROUNDDOWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MROUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEILING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍入100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍入5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入5倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舍5倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,12 +287,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0&quot;米&quot;"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="\$#,##0;\-\$#,##0"/>
-    <numFmt numFmtId="180" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="181" formatCode="&quot;这&quot;&quot;个&quot;0&quot;呵&quot;&quot;呵&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="\$#,##0;\-\$#,##0"/>
+    <numFmt numFmtId="0" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="&quot;这&quot;&quot;个&quot;0&quot;呵&quot;&quot;呵&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +320,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -341,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -357,18 +415,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1281,7 +1343,7 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1639,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1825,4 +1887,303 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C1" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="29">
+        <v>102</v>
+      </c>
+      <c r="C3" s="5">
+        <f>ROUND(B3,-2)</f>
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
+        <f>ROUNDUP(B3,-2)</f>
+        <v>200</v>
+      </c>
+      <c r="E3" s="5">
+        <f>ROUNDDOWN(B3,-2)</f>
+        <v>100</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IFERROR(MROUND(B3,5),-MROUND(-B3,5))</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
+        <f>CEILING(B3,5)</f>
+        <v>105</v>
+      </c>
+      <c r="H3" s="5">
+        <f>FLOOR(B3,5)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="29">
+        <v>201</v>
+      </c>
+      <c r="C4" s="5">
+        <f>ROUND(B4,-2)</f>
+        <v>200</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" ref="D4:D9" si="0">ROUNDUP(B4,-2)</f>
+        <v>300</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E9" si="1">ROUNDDOWN(B4,-2)</f>
+        <v>200</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="2">IFERROR(MROUND(B4,5),-MROUND(-B4,5))</f>
+        <v>200</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G9" si="3">CEILING(B4,5)</f>
+        <v>205</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H9" si="4">FLOOR(B4,5)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="29">
+        <v>98</v>
+      </c>
+      <c r="C5" s="5">
+        <f>ROUND(B5,-2)</f>
+        <v>100</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="29">
+        <v>167</v>
+      </c>
+      <c r="C6" s="5">
+        <f>ROUND(B6,-2)</f>
+        <v>200</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="29">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5">
+        <f>ROUND(B7,-2)</f>
+        <v>100</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="29">
+        <v>649</v>
+      </c>
+      <c r="C8" s="5">
+        <f>ROUND(B8,-2)</f>
+        <v>600</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B9" s="29">
+        <v>-222</v>
+      </c>
+      <c r="C9" s="5">
+        <f>ROUND(B9,-2)</f>
+        <v>-200</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>-300</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>-200</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>-220</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>-220</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
+        <v>-225</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>